--- a/data/pca/factorExposure/factorExposure_2012-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-01.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003112059375225638</v>
+        <v>0.001673559601545999</v>
       </c>
       <c r="C2">
-        <v>-0.02572003445137752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02818602730138833</v>
+      </c>
+      <c r="D2">
+        <v>-0.004258454648371411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001424610453436449</v>
+        <v>-0.00727016636383326</v>
       </c>
       <c r="C4">
-        <v>-0.08920297556012641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08387069439416706</v>
+      </c>
+      <c r="D4">
+        <v>-0.06438372305989241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006322487333543751</v>
+        <v>-0.01568029663946442</v>
       </c>
       <c r="C6">
-        <v>-0.1147361051203664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1199928027082077</v>
+      </c>
+      <c r="D6">
+        <v>-0.01936103028937075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>6.040980802304815e-05</v>
+        <v>-0.004544588806171883</v>
       </c>
       <c r="C7">
-        <v>-0.05327442253633783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05909634683873503</v>
+      </c>
+      <c r="D7">
+        <v>-0.03303895032941038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002889724599170523</v>
+        <v>-0.005209347828946452</v>
       </c>
       <c r="C8">
-        <v>-0.04000558904008965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03665243556408702</v>
+      </c>
+      <c r="D8">
+        <v>-0.03520428397319562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0004861652083805291</v>
+        <v>-0.006377941784091898</v>
       </c>
       <c r="C9">
-        <v>-0.07307070694611993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07410741468543067</v>
+      </c>
+      <c r="D9">
+        <v>-0.06942172010256524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0002390315049869377</v>
+        <v>-0.002163450413205337</v>
       </c>
       <c r="C10">
-        <v>-0.05180843369161889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04961602603687935</v>
+      </c>
+      <c r="D10">
+        <v>0.1855045957271728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.001088748994134498</v>
+        <v>-0.007059268003103789</v>
       </c>
       <c r="C11">
-        <v>-0.08855034190619498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0822290218278357</v>
+      </c>
+      <c r="D11">
+        <v>-0.06673271353711224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000200388003953483</v>
+        <v>-0.005176839497483721</v>
       </c>
       <c r="C12">
-        <v>-0.06921510188217279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.0675142905206934</v>
+      </c>
+      <c r="D12">
+        <v>-0.04782521527291036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00336023188998115</v>
+        <v>-0.009985243877962272</v>
       </c>
       <c r="C13">
-        <v>-0.07173192336072694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0706296416121594</v>
+      </c>
+      <c r="D13">
+        <v>-0.05561512260388921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001426624569916928</v>
+        <v>-0.0007880198374739361</v>
       </c>
       <c r="C14">
-        <v>-0.04619531323525525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04371170353901566</v>
+      </c>
+      <c r="D14">
+        <v>-0.0123687190273479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002978035017062666</v>
+        <v>-0.006996835089496539</v>
       </c>
       <c r="C15">
-        <v>-0.03881200374944203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04075948380158347</v>
+      </c>
+      <c r="D15">
+        <v>-0.02471766450830175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001301010130786268</v>
+        <v>-0.005967180565794746</v>
       </c>
       <c r="C16">
-        <v>-0.07219402712880681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06668978291216626</v>
+      </c>
+      <c r="D16">
+        <v>-0.05716613124363198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.004318107526790477</v>
+        <v>-0.009730494998257956</v>
       </c>
       <c r="C20">
-        <v>-0.07080784477447744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06479532649410072</v>
+      </c>
+      <c r="D20">
+        <v>-0.04926821281032483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006027935047466841</v>
+        <v>-0.009316025496524456</v>
       </c>
       <c r="C21">
-        <v>-0.01824505722002109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.0198837501669533</v>
+      </c>
+      <c r="D21">
+        <v>-0.04027644468661969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01854565420574747</v>
+        <v>0.00710686572339003</v>
       </c>
       <c r="C22">
-        <v>-0.07978609698228453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08508326241569582</v>
+      </c>
+      <c r="D22">
+        <v>-0.1155023219089896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01829899268246947</v>
+        <v>0.006832054969980489</v>
       </c>
       <c r="C23">
-        <v>-0.08014944062110313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08550267307008143</v>
+      </c>
+      <c r="D23">
+        <v>-0.1166424799860731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0005779195671549813</v>
+        <v>-0.006789756278030299</v>
       </c>
       <c r="C24">
-        <v>-0.08002262954894833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07847741769162685</v>
+      </c>
+      <c r="D24">
+        <v>-0.06563158619551113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.001266210252097956</v>
+        <v>-0.004460969378802132</v>
       </c>
       <c r="C25">
-        <v>-0.08386636678896905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.07981246452190212</v>
+      </c>
+      <c r="D25">
+        <v>-0.06289652511406213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.0001020565281617995</v>
+        <v>-0.004114431294533857</v>
       </c>
       <c r="C26">
-        <v>-0.03570675656274216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.04000362060628231</v>
+      </c>
+      <c r="D26">
+        <v>-0.0207994504724636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006340878022546351</v>
+        <v>0.001993687339491373</v>
       </c>
       <c r="C28">
-        <v>-0.1050321150806939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09824957773630094</v>
+      </c>
+      <c r="D28">
+        <v>0.3270426043304485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0003468046277581842</v>
+        <v>-0.003703483628226029</v>
       </c>
       <c r="C29">
-        <v>-0.04534257472126319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04722307022535535</v>
+      </c>
+      <c r="D29">
+        <v>-0.009695563533102317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.0009596697874487565</v>
+        <v>-0.01095537264908529</v>
       </c>
       <c r="C30">
-        <v>-0.1355512252618069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1420960755097454</v>
+      </c>
+      <c r="D30">
+        <v>-0.106979717943922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002998066842648593</v>
+        <v>-0.006791762352324412</v>
       </c>
       <c r="C31">
-        <v>-0.04222855934198487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04464961964567104</v>
+      </c>
+      <c r="D31">
+        <v>-0.02885799839128385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000332967234755151</v>
+        <v>-0.004437940927296161</v>
       </c>
       <c r="C32">
-        <v>-0.0371234910450968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0378613387732805</v>
+      </c>
+      <c r="D32">
+        <v>-0.01549181867384909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002225585383385268</v>
+        <v>-0.009925938942890275</v>
       </c>
       <c r="C33">
-        <v>-0.08955704380776271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09222769308094822</v>
+      </c>
+      <c r="D33">
+        <v>-0.06100682050722332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.000471598967866123</v>
+        <v>-0.005520251559779534</v>
       </c>
       <c r="C34">
-        <v>-0.0587755544958178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0597794585523346</v>
+      </c>
+      <c r="D34">
+        <v>-0.05654572264329639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002320706515755242</v>
+        <v>-0.005416496615794121</v>
       </c>
       <c r="C35">
-        <v>-0.0392059308449786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.03981930852205302</v>
+      </c>
+      <c r="D35">
+        <v>-0.01371156921160301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004290795131565197</v>
+        <v>0.001369691937024107</v>
       </c>
       <c r="C36">
-        <v>-0.02171745155748828</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02533456364740838</v>
+      </c>
+      <c r="D36">
+        <v>-0.01963884332025768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.004727423921469928</v>
+        <v>-0.009154130313953596</v>
       </c>
       <c r="C38">
-        <v>-0.03175791350709704</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03878935994283556</v>
+      </c>
+      <c r="D38">
+        <v>-0.0119935090528253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.008177568343137025</v>
+        <v>8.857506996645541e-05</v>
       </c>
       <c r="C39">
-        <v>-0.1211645929030682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1144226652279439</v>
+      </c>
+      <c r="D39">
+        <v>-0.08301812223581626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003216145671594177</v>
+        <v>-0.003205784247472192</v>
       </c>
       <c r="C40">
-        <v>-0.08384454155208461</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08511915020241193</v>
+      </c>
+      <c r="D40">
+        <v>-0.008885956800525884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.003640160533826923</v>
+        <v>-0.007940223410244508</v>
       </c>
       <c r="C41">
-        <v>-0.0340138529178383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04171089914543871</v>
+      </c>
+      <c r="D41">
+        <v>-0.0439504930276693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0007048198954748116</v>
+        <v>-0.004472880441248424</v>
       </c>
       <c r="C43">
-        <v>-0.05067259994155786</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05381164689382129</v>
+      </c>
+      <c r="D43">
+        <v>-0.02673445271535087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005252925918777203</v>
+        <v>-0.003020205246035473</v>
       </c>
       <c r="C44">
-        <v>-0.11719683284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.103648188663703</v>
+      </c>
+      <c r="D44">
+        <v>-0.06220864035510042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001377051525178289</v>
+        <v>-0.0009640167517143769</v>
       </c>
       <c r="C46">
-        <v>-0.03255611403311929</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03145678475552394</v>
+      </c>
+      <c r="D46">
+        <v>-0.03420049008914085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003603767353625506</v>
+        <v>-0.00335778631066673</v>
       </c>
       <c r="C47">
-        <v>-0.03464601833550374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03564707219628548</v>
+      </c>
+      <c r="D47">
+        <v>-0.01943651613767434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004998062420634637</v>
+        <v>-0.007970381427802665</v>
       </c>
       <c r="C48">
-        <v>-0.02740721087653763</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03213393551230519</v>
+      </c>
+      <c r="D48">
+        <v>-0.02725803861279024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.008469323351844277</v>
+        <v>-0.02019743108906099</v>
       </c>
       <c r="C49">
-        <v>-0.1956890634916847</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1877509336902215</v>
+      </c>
+      <c r="D49">
+        <v>-0.01170828057188641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0004568426875874337</v>
+        <v>-0.004462868545601931</v>
       </c>
       <c r="C50">
-        <v>-0.03587133591717829</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04327122447070277</v>
+      </c>
+      <c r="D50">
+        <v>-0.03764997911220567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003364283795193848</v>
+        <v>-0.004064106745566422</v>
       </c>
       <c r="C51">
-        <v>-0.02352524406335262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02753717772483904</v>
+      </c>
+      <c r="D51">
+        <v>-0.02351592847148683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01076634550191304</v>
+        <v>-0.02314421586544606</v>
       </c>
       <c r="C53">
-        <v>-0.1760330797301967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.171512910573676</v>
+      </c>
+      <c r="D53">
+        <v>-0.0194065463593015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004112936867541855</v>
+        <v>-0.009800401068062259</v>
       </c>
       <c r="C54">
-        <v>-0.05809308136727914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05800290717779859</v>
+      </c>
+      <c r="D54">
+        <v>-0.03854500257828097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004035075485439851</v>
+        <v>-0.01096747366656499</v>
       </c>
       <c r="C55">
-        <v>-0.1162071671778754</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1088301848397822</v>
+      </c>
+      <c r="D55">
+        <v>-0.03253325014939738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01103949257166024</v>
+        <v>-0.02253154241721916</v>
       </c>
       <c r="C56">
-        <v>-0.1783969835153865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1719322607097019</v>
+      </c>
+      <c r="D56">
+        <v>-0.01578779508154724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003452564550783325</v>
+        <v>-0.018056073195922</v>
       </c>
       <c r="C58">
-        <v>-0.10881704473874</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1056041169051927</v>
+      </c>
+      <c r="D58">
+        <v>-0.05596778540061898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001774502040193401</v>
+        <v>-0.01032784109861255</v>
       </c>
       <c r="C59">
-        <v>-0.1474137468573839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1659469512166508</v>
+      </c>
+      <c r="D59">
+        <v>0.351061306245645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01093635977276888</v>
+        <v>-0.02781779782684732</v>
       </c>
       <c r="C60">
-        <v>-0.2180426805811196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2256871304977435</v>
+      </c>
+      <c r="D60">
+        <v>-0.01963270710356725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.007836074245342549</v>
+        <v>0.001077189605057313</v>
       </c>
       <c r="C61">
-        <v>-0.0994145792433631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09523141971916016</v>
+      </c>
+      <c r="D61">
+        <v>-0.06078388381857512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1504092822215158</v>
+        <v>-0.1553528858202103</v>
       </c>
       <c r="C62">
-        <v>-0.1073494768496402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1028848610139229</v>
+      </c>
+      <c r="D62">
+        <v>-0.01720574978868107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002250329712153124</v>
+        <v>-0.006957104571824383</v>
       </c>
       <c r="C63">
-        <v>-0.05178665589201711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05334976087111022</v>
+      </c>
+      <c r="D63">
+        <v>-0.0328000770470341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01001091119301055</v>
+        <v>-0.01746745447983345</v>
       </c>
       <c r="C64">
-        <v>-0.1149190349279642</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.1114007536599722</v>
+      </c>
+      <c r="D64">
+        <v>-0.05039769843586371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.009420985967537134</v>
+        <v>-0.01836080999258205</v>
       </c>
       <c r="C65">
-        <v>-0.1243399016087256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1271262658471465</v>
+      </c>
+      <c r="D65">
+        <v>-0.02381354105772382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.002555397689845807</v>
+        <v>-0.0143748929834349</v>
       </c>
       <c r="C66">
-        <v>-0.1634867713484088</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1622511035249759</v>
+      </c>
+      <c r="D66">
+        <v>-0.1150541114186788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00879276178314049</v>
+        <v>-0.01589609594230089</v>
       </c>
       <c r="C67">
-        <v>-0.06574496752080734</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07231890718915783</v>
+      </c>
+      <c r="D67">
+        <v>-0.02476013849066733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004608258714681799</v>
+        <v>-0.0002552515265239014</v>
       </c>
       <c r="C68">
-        <v>-0.08007212849837476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08002012560480952</v>
+      </c>
+      <c r="D68">
+        <v>0.2619263692529757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.0008855755881208115</v>
+        <v>-0.006687045212146168</v>
       </c>
       <c r="C69">
-        <v>-0.05020091212352908</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05301798972403111</v>
+      </c>
+      <c r="D69">
+        <v>-0.03648853648513508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001693899593043002</v>
+        <v>-0.002716507760958954</v>
       </c>
       <c r="C70">
-        <v>-0.003015041450579597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.00913793269802869</v>
+      </c>
+      <c r="D70">
+        <v>0.00199139233763156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-5.547098924351125e-05</v>
+        <v>-0.004977572024856292</v>
       </c>
       <c r="C71">
-        <v>-0.0871185766577395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08563364810755698</v>
+      </c>
+      <c r="D71">
+        <v>0.3043268011917335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00811058214547886</v>
+        <v>-0.01922433519681268</v>
       </c>
       <c r="C72">
-        <v>-0.1540807358898045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.158217942803506</v>
+      </c>
+      <c r="D72">
+        <v>-0.00859803946126784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01511546696598466</v>
+        <v>-0.03327296011391859</v>
       </c>
       <c r="C73">
-        <v>-0.2920077572015891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.285176130580671</v>
+      </c>
+      <c r="D73">
+        <v>-0.05426292005990683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004145766474408333</v>
+        <v>-0.002742511023666593</v>
       </c>
       <c r="C74">
-        <v>-0.1073561217456431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1034305877828294</v>
+      </c>
+      <c r="D74">
+        <v>-0.03218520268821807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002220289460293732</v>
+        <v>-0.01310526931780331</v>
       </c>
       <c r="C75">
-        <v>-0.1204537019443883</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1173732705090255</v>
+      </c>
+      <c r="D75">
+        <v>-0.02592300704681783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01342399195566202</v>
+        <v>-0.02353543697140738</v>
       </c>
       <c r="C76">
-        <v>-0.1505874375860296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1445594941173531</v>
+      </c>
+      <c r="D76">
+        <v>-0.05509357742986964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01130480269445817</v>
+        <v>-0.02164796708685641</v>
       </c>
       <c r="C77">
-        <v>-0.1100726158526142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.106465695227352</v>
+      </c>
+      <c r="D77">
+        <v>-0.04553174380129665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.006570549415325633</v>
+        <v>-0.01512665818625365</v>
       </c>
       <c r="C78">
-        <v>-0.09054798679062509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1016451450339224</v>
+      </c>
+      <c r="D78">
+        <v>-0.07805197924218546</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03013301102512678</v>
+        <v>-0.04042647737910701</v>
       </c>
       <c r="C79">
-        <v>-0.1671127500495534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1560401176034567</v>
+      </c>
+      <c r="D79">
+        <v>-0.02880130885311383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006537772447463389</v>
+        <v>-0.01000751781950021</v>
       </c>
       <c r="C80">
-        <v>-0.03922006961603555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03959095578570753</v>
+      </c>
+      <c r="D80">
+        <v>-0.03015130572745912</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.007183432022717034</v>
+        <v>-0.01724832586204</v>
       </c>
       <c r="C81">
-        <v>-0.1326716221216702</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.1312316186683719</v>
+      </c>
+      <c r="D81">
+        <v>-0.03421537612888363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01004177240949282</v>
+        <v>-0.02107642378378636</v>
       </c>
       <c r="C82">
-        <v>-0.1443702813442982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.1368299042328178</v>
+      </c>
+      <c r="D82">
+        <v>-0.03661770565275486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004620764102405047</v>
+        <v>-0.01245174379078257</v>
       </c>
       <c r="C83">
-        <v>-0.07195054043068982</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06532950644961626</v>
+      </c>
+      <c r="D83">
+        <v>-0.04544207603752442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.003996087263828474</v>
+        <v>-0.007347107035020805</v>
       </c>
       <c r="C84">
-        <v>-0.02395326281308045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03482333474027805</v>
+      </c>
+      <c r="D84">
+        <v>-0.01363597302847591</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02093483251486664</v>
+        <v>-0.03022128055689827</v>
       </c>
       <c r="C85">
-        <v>-0.1366908340275252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1217042063891033</v>
+      </c>
+      <c r="D85">
+        <v>-0.03950688261372617</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001908753972317716</v>
+        <v>-0.004192705517684918</v>
       </c>
       <c r="C86">
-        <v>-0.04489103399251733</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.05135284479437598</v>
+      </c>
+      <c r="D86">
+        <v>-0.0214015272578871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00464375817732317</v>
+        <v>-0.01313044092064111</v>
       </c>
       <c r="C87">
-        <v>-0.1394114468258794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1295976534576418</v>
+      </c>
+      <c r="D87">
+        <v>-0.07117264172441312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.007572237374186148</v>
+        <v>0.002581091586923781</v>
       </c>
       <c r="C88">
-        <v>-0.06661216684822031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06344536727615277</v>
+      </c>
+      <c r="D88">
+        <v>-0.02735997389317023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01081291921289751</v>
+        <v>0.001774762991263636</v>
       </c>
       <c r="C89">
-        <v>-0.1218650152539435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.128114669542635</v>
+      </c>
+      <c r="D89">
+        <v>0.3213560107421237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001684380490257393</v>
+        <v>-0.005344729278767029</v>
       </c>
       <c r="C90">
-        <v>-0.1105596272246669</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.110759168991523</v>
+      </c>
+      <c r="D90">
+        <v>0.3167353560250459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.003319014644432489</v>
+        <v>-0.01150670402035826</v>
       </c>
       <c r="C91">
-        <v>-0.1019008063868844</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09882103937976956</v>
+      </c>
+      <c r="D91">
+        <v>-0.02667764592674231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00527341847160651</v>
+        <v>-0.0002919856698732128</v>
       </c>
       <c r="C92">
-        <v>-0.1320475937906478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.1229081320294945</v>
+      </c>
+      <c r="D92">
+        <v>0.3269260831003609</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001810251897693154</v>
+        <v>-0.003502570569177466</v>
       </c>
       <c r="C93">
-        <v>-0.1049699946694035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1021653248413796</v>
+      </c>
+      <c r="D93">
+        <v>0.3004715277205224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01272410218867142</v>
+        <v>-0.02310161850658222</v>
       </c>
       <c r="C94">
-        <v>-0.1511696393133879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1347779798249125</v>
+      </c>
+      <c r="D94">
+        <v>-0.05306720102416845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.009955798520813994</v>
+        <v>-0.01826771749793919</v>
       </c>
       <c r="C95">
-        <v>-0.1241706802574332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1216239975003345</v>
+      </c>
+      <c r="D95">
+        <v>-0.06632813113567214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01919008143487459</v>
+        <v>-0.03883444985012024</v>
       </c>
       <c r="C97">
-        <v>-0.2019422112480431</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2254184715441802</v>
+      </c>
+      <c r="D97">
+        <v>0.009687389724555153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01672055462560799</v>
+        <v>-0.0414958042506291</v>
       </c>
       <c r="C98">
-        <v>-0.2596354556994103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2648970591577235</v>
+      </c>
+      <c r="D98">
+        <v>-0.03079960812782552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.985934621501996</v>
+        <v>-0.9793331208835361</v>
       </c>
       <c r="C99">
-        <v>0.05459062156078088</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1300902506671216</v>
+      </c>
+      <c r="D99">
+        <v>0.02545029439870868</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.000319509563311891</v>
+        <v>-0.003693760912783563</v>
       </c>
       <c r="C101">
-        <v>-0.04558829081643857</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04741054841864018</v>
+      </c>
+      <c r="D101">
+        <v>-0.01034962177611453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
